--- a/DOM_Banner/output/dept_banner/Sachin Chaudhary_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sachin Chaudhary_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,7 +694,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4362500945", "https://openalex.org/W4292425257", "https://openalex.org/W4200084791", "https://openalex.org/W4362730664", "https://openalex.org/W4361829627", "https://openalex.org/W4226470295", "https://openalex.org/W2799497437", "https://openalex.org/W3201164698", "https://openalex.org/W3041489595", "https://openalex.org/W4286482479")</t>
+          <t>c("https://openalex.org/W4250942514", "https://openalex.org/W3160375675", "https://openalex.org/W4253897078", "https://openalex.org/W4283163498", "https://openalex.org/W3164536060", "https://openalex.org/W4221010187", "https://openalex.org/W4283257700", "https://openalex.org/W4226088185", "https://openalex.org/W4320037181", "https://openalex.org/W3005980542")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -1086,171 +1086,519 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4388703944</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bloch-Sulzberger Syndrome: A Rare X-Linked Dominant Genetic Disorder in a Newborn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5093268654", "https://openalex.org/A5002855036", "https://openalex.org/A5041852419", "https://openalex.org/A5059557848", "https://openalex.org/A5022844184", "https://openalex.org/A5021789119", "https://openalex.org/A5092343508", "https://openalex.org/A5091408968"), au_display_name = c("Utsav P Vaghani", "Abdul Khalid Qadree", "S. C. Mehta", "Nalin Chaudhary", "Kusum Sharma", "Sanjeev Chaudhary", "Anasonye Emmanuel Kelechi", "Kausar Bano"), au_orcid = c(NA, NA, 
+NA, NA, "https://orcid.org/0009-0001-7021-654X", NA, "https://orcid.org/0009-0002-9278-4713", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, 
+NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bloch-Sulzberger Syndrome, also known as Incontinence Pigmentosa (IP), is a rare genodermatosis in which skin involvement occurs in almost all patients. Additionally, other ectodermal tissues like the central nervous system, eyes, hair, nails, and teeth may also be impacted. An X-linked dominant inheritance pattern characterizes the condition. But in our situation, IP caused a mutation in the body cells. There are four steps to the dermatological results. We describe the case of a 12-day-old female who had cutaneous features. It is crucial to make an early diagnosis using criteria like cutaneous symptoms so that quick diagnoses and interventions for other organs can be made to control more deadly complications in the future.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cureus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S2738950867</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cureus, Inc.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2168-8184</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.48823</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://assets.cureus.com/uploads/case_report/pdf/193461/20231115-17608-1mlie0r.pdf</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://assets.cureus.com/uploads/case_report/pdf/193461/20231115-17608-1mlie0r.pdf</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4388703944</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4388703944", doi = "https://doi.org/10.7759/cureus.48823", pmid = "https://pubmed.ncbi.nlm.nih.gov/38106755")</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.48823</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2053585674", "https://openalex.org/W2410764750", "https://openalex.org/W2753899911", "https://openalex.org/W4226417483", "https://openalex.org/W4241981241", "https://openalex.org/W4250539920")</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W4242331595", "https://openalex.org/W2114417421", "https://openalex.org/W2008290453", "https://openalex.org/W2412968475", "https://openalex.org/W2048373844", "https://openalex.org/W2057126451", "https://openalex.org/W2113956110", "https://openalex.org/W2029033789", "https://openalex.org/W1521115193", "https://openalex.org/W153882164")</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4389160784</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Futuristic Novel Therapeutic Approaches in the Treatment of Rheumatoid Arthritis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5049453970", "https://openalex.org/A5014813333", "https://openalex.org/A5022343185", "https://openalex.org/A5021789119", "https://openalex.org/A5070161110", "https://openalex.org/A5093382818"), au_display_name = c("Vikramaditya Rai", "Nirmal Patel", "Simi R Mammen", "Sanjeev Chaudhary", "Sanan Arshad", "Shahzad W Munazzam"), au_orcid = c("https://orcid.org/0000-0002-2047-0531", "https://orcid.org/0000-0002-9799-7868", NA, NA, NA, NA), author_position = c("first", 
+"middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rheumatoid arthritis (RA) is a chronic autoimmune disease characterized by systemic inflammation and joint destruction, leading to significant morbidity and reduced quality of life. Although significant progress has been made in the management of RA over the past few decades, many patients still fail to respond adequately to currently available therapies. This article aims to review the current landscape of RA treatment and explore potential novel therapeutic approaches that hold promise for the future. Advances in our understanding of the underlying pathogenesis of the disease have led to the identification of new targets and the development of innovative treatment strategies. This review focuses on emerging therapies including small molecule inhibitors, targeted biologics, cell-based therapies, and gene editing technologies that have shown potential in preclinical and early clinical trials. Additionally, we discuss the challenges and opportunities associated with the use of these new approaches in the treatment of RA. By elucidating the future of novel therapeutic approaches, this article provides insights that can guide clinicians and researchers in their efforts to improve outcomes for patients with RA.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cureus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S2738950867</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cureus, Inc.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2168-8184</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.49738</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://assets.cureus.com/uploads/review_article/pdf/197973/20231130-8005-1143v1s.pdf</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://assets.cureus.com/uploads/review_article/pdf/197973/20231130-8005-1143v1s.pdf</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4389160784</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4389160784", doi = "https://doi.org/10.7759/cureus.49738", pmid = "https://pubmed.ncbi.nlm.nih.gov/38161868")</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.49738</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2038593306", "https://openalex.org/W2046957298", "https://openalex.org/W2201326611", "https://openalex.org/W2597733778", "https://openalex.org/W2767394258", "https://openalex.org/W2803973097", "https://openalex.org/W2954501405", "https://openalex.org/W2976379921", "https://openalex.org/W2995734501", "https://openalex.org/W3180882235", "https://openalex.org/W3184467671", "https://openalex.org/W4200454701", "https://openalex.org/W4210366551", "https://openalex.org/W4226275346", 
+"https://openalex.org/W4280590568", "https://openalex.org/W4282934357", "https://openalex.org/W4307106007", "https://openalex.org/W4311307625", "https://openalex.org/W4311479028", "https://openalex.org/W4315433173", "https://openalex.org/W4321166025", "https://openalex.org/W4323652643", "https://openalex.org/W4377164070", "https://openalex.org/W4383710632")</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1967563157", "https://openalex.org/W1501007924", "https://openalex.org/W1143447605", "https://openalex.org/W2111650087", "https://openalex.org/W1995085194", "https://openalex.org/W2185550546", "https://openalex.org/W2416097977", "https://openalex.org/W2993678931", "https://openalex.org/W2028766184", "https://openalex.org/W3045583548")</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4390620837</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>PROFILE OF CORNEAL ULCERS IN A TERTIARY EYE CARE CENTRE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5067647919", "https://openalex.org/A5022010663", "https://openalex.org/A5046720131", "https://openalex.org/A5015736770"), au_display_name = c("Khushboo Jaiswal", "J.S. Verma", "Amit Patel", "Sachin Chaudhary"), au_orcid = c(NA, NA, "https://orcid.org/0000-0002-1409-7558", "https://orcid.org/0000-0001-5192-9336"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Assistant Professor, Government Medical College, Kannauj, Uttar Pradesh", 
 "Associate Professor, Government Medical College, Kannauj, Uttar Pradesh", "Professor, Government Medical College, Ambedkar Nagar, Uttar Pradesh", "Assistant Professor Autonomous State Medical College, Shahjahanpur, Uttar Pradesh"), institution_id = c(NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA))</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>To review the epidemiological characteristics, microbiological prole, and treatment outcome of patient with microbial keratitis. Methods And Materials: All the patients presenting with chief complains of pain, redness, photophobia, watering, and on examination were stain positive with corneal stromal inltrate underwent standard microbiological evaluation of their corneal scrapings. Patients were divided into bacterial, viral, and fungal keratitis diagnosed on the basis of clinical and microbiological ndings and treatment was started. Results: Out of 67 cases of microbial keratitis 12 (17.9%) were culture-proven. Patients with agriculture-based activities were at greater risk of developing microbial keratitis and patients with ocular trauma were more likely to develop microbial keratitis. Asignicantly larger number of patients with fungal keratitis required surgical intervention compared to bacterial and viral keratitis. Corneal healed scar was achieved in 36 (53.7%) of patients with bacterial, fungal, and viral keratitis. Conclusions: While diagnostic and treatment modalities are well in place the nal outcome is suboptimal in fungal keratitis. With more effective treatment available for bacterial and viral keratitis, the treatment of fungal keratitis is truly a challenge.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>INTERNATIONAL JOURNAL OF SCIENTIFIC RESEARCH</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://openalex.org/S4363604216</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://doi.org/10.36106/ijsr/8006713</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4390620837</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4390620837", doi = "https://doi.org/10.36106/ijsr/8006713")</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>https://doi.org/10.36106/ijsr/8006713</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W3168381049", "https://openalex.org/W2213916765", "https://openalex.org/W2372899363", "https://openalex.org/W2366925608", "https://openalex.org/W2343761151", "https://openalex.org/W2591072259", "https://openalex.org/W2149242088", "https://openalex.org/W2794327896", "https://openalex.org/W2344519514", "https://openalex.org/W2002169396")</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>

--- a/DOM_Banner/output/dept_banner/Sachin Chaudhary_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sachin Chaudhary_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Computer Science and Engineering Department, IIMT Engineering College, Meerut; IIMT University,School of Computer Science &amp;#x0026; Applications,Meerut; IIMT University,School of Computer Science &amp;#x0026; Applications,Meerut; IIMT University,School of Computer Science &amp;#x0026; Applications,Meerut; IIMT University,School of Computer Science &amp;#x0026; Applications,Meerut; IIMT University,School of Computer Science &amp;#x0026; Applications,Meerut</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379619935</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Blockchain – A Deployment Mechanism for IoT Based Security</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/cictn57981.2023.10140715</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/cictn57981.2023.10140715</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Fondazione Policlinico Universitario A. Gemelli IRCCS, Rome, Italy; Department of Thoracic Medicine, The Prince Charles Hospital, Brisbane, Australia; Imperial College London, London, United Kingdom; Bombay Hospital &amp; Institute of Medical Sciences, Mumbai, India; KAUH, Jeddah, Saudi Arabia; ILD Department, Maria Ferrer Hospital, Buenos Aires, Argentina; Di Venere Hospitl, Bari, Italy; Department of Radiology. Hospital general Universitario de Alicante, Alicante, Spain; Department of Radiology, Nottingham University Hospitals, City Campus, Nottingham, United Kingdom; Sechenov Medical UniversityMalaya, Moscow, Russian Federation; Radiology Unit, Department of Oncology, University of Turin, San Luigi Gonzaga Hospital, Orbassano, Italy, Italy; Pulmonary Division, Heart Institute (InCor), University of Sao Paulo Medical School, Sao Paulo, Brazil; Faculty of Medicine, Universiti Kebangsaan Malaysia, Kuala Lumpur, Malaysia; Carol Davila University of Medicine and Pharmacy, Bucharest, Romania; Department of Respiratory Diseases and Allergy, Aarhus University Hospital, Aarhus, Denmark; University Hospital of Siena, Siena, Italy; Somnolab, Dortmund, Germany; Ospedale di Chioggia, Chioggia (Venice), Italy; Department of Medical Imaging and Physiology, Skåne University Hospital, Lund, Sweden; University Hospital Shefqet Ndroqi, Tirana, Albania; Galway University Hospitals, Galway, Ireland; Instituto Nacional de Enfermedades Respiratorias Ismael Cosio Villegas, Mexico City, Mexico; State University of Medicine and Pharmacy Nicolae Testemitanu, Chisinau, Republic of Moldova; Centro Hospitalar de Vila Nova de Gaia e Espinho, Vila Nova de Gaia, Portugal; Dept Internal Medicine University of Genoa, Genoa, Italy; Department of Radiology, Centro Hospitalar Universitário de São João, Porto, Portugal; Institute of Radiology, Department of Medicine, University of Udine, Udine, Italy; Department of Respiratory and Critical Care Medicine, Tan Tock Seng Hospital, Singapore, Singapore; University of Arizona, Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, Tucson, United States; University of Ulster, Londonderry, United Kingdom; City Clinic Department of Radiology, Mauritius, Mauritius; NSW Health Pathology; Royal Prince Alfred Hospital; The University of Sydney, Sydney, Australia; Department of Biomedicine, Neurosciences and Advanced Diagnostics BIND, University of Palermo, Palermo, Italy; Fondazione Policlinico Universitario Agostino Gemelli, Rome, Italy; Zuyderland Medical Centre, Heerlen, Netherlands; Universidad de Aconcagua, Los Andes, Chile; Post Graduate Institute of Medical Education and Research, Chandigarh, India; Salud y Hogar, Guadalajara, Mexico; Einstein Philadelphia, Jefferson Health System, Philadelphia, United States; Monash University, Melbourne, Australia; The Alfred Hospital; McGovern Medical School - The University of Texas at Houston, Houston, United States; Imperial College London, London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387979705</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Late Breaking Abstract - Artificial intelligence-based dec­­­ision support for HRCT stratification in fibrotic lung disease; an international study of 116 observers from 37 countries.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Akadémiai Kiadó</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.oa4848</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.oa4848</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Pulmonary, Critical Care and Sleep Medicine; Department of Pulmonary, Critical Care and Sleep Medicine; Department of Pulmonary, Critical Care and Sleep Medicine; Department of Pulmonary, Critical Care and Sleep Medicine; Department of Anesthesia and Critical Care, B. P. Koirala Institute of Health Science, Dharan Nepal; Department of Pulmonary, Critical Care and Sleep Medicine; Department of Pulmonary, Critical Care and Sleep Medicine; Department of Pulmonary, Critical Care and Sleep Medicine; Department of Pulmonary, Critical Care and Sleep Medicine; Department of Pulmonary, Critical Care and Sleep Medicine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388420977</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Pulmonary Alveolar Proteinosis: Conducting the first Whole Lung Lavage in Nepal</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Nepalese Respiratory Journal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3126/nrj.v2i1.59616</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3126/nrj.v2i1.59616</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Utsav P Vaghani, Abdul Khalid Qadree, S. C. Mehta, Nalin Chaudhary, Kusum Sharma, Sanjeev Chaudhary, Anasonye Emmanuel Kelechi, Kausar Bano</t>
+          <t>Vikramaditya Rai, Nirmal Patel, Simi R Mammen, Sanjeev Chaudhary, Sanan Arshad, Shahzad W Munazzam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388703944</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bloch-Sulzberger Syndrome: A Rare X-Linked Dominant Genetic Disorder in a Newborn</t>
+          <t>https://openalex.org/W4389160784</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>Futuristic Novel Therapeutic Approaches in the Treatment of Rheumatoid Arthritis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7759/cureus.48823</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.7759/cureus.49738</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38106755</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.48823</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38161868</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.49738</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vikramaditya Rai, Nirmal Patel, Simi R Mammen, Sanjeev Chaudhary, Sanan Arshad, Shahzad W Munazzam</t>
+          <t>Khushboo Jaiswal, J.S. Verma, Amit Patel, Sachin Chaudhary</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389160784</t>
+          <t>Assistant Professor, Government Medical College, Kannauj, Uttar Pradesh; Associate Professor, Government Medical College, Kannauj, Uttar Pradesh; Professor, Government Medical College, Ambedkar Nagar, Uttar Pradesh; Assistant Professor Autonomous State Medical College, Shahjahanpur, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Futuristic Novel Therapeutic Approaches in the Treatment of Rheumatoid Arthritis</t>
+          <t>https://openalex.org/W4390620837</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>PROFILE OF CORNEAL ULCERS IN A TERTIARY EYE CARE CENTRE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cureus</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cureus, Inc.</t>
+          <t>INTERNATIONAL JOURNAL OF SCIENTIFIC RESEARCH</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.49738</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>https://doi.org/10.36106/ijsr/8006713</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38161868</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.49738</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.36106/ijsr/8006713</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Khushboo Jaiswal, J.S. Verma, Amit Patel, Sachin Chaudhary</t>
+          <t>Utsav P Vaghani, Abdul Khalid Qadree, S. C. Mehta, Nalin Chaudhary, Kusum Sharma, Sanjeev Chaudhary, Anasonye Emmanuel Kelechi, Kausar Bano</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390620837</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROFILE OF CORNEAL ULCERS IN A TERTIARY EYE CARE CENTRE</t>
+          <t>https://openalex.org/W4388703944</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Bloch-Sulzberger Syndrome: A Rare X-Linked Dominant Genetic Disorder in a Newborn</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF SCIENTIFIC RESEARCH</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Cureus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cureus, Inc.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.48823</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.36106/ijsr/8006713</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.36106/ijsr/8006713</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38106755</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.48823</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
